--- a/biology/Botanique/Saccharina_japonica/Saccharina_japonica.xlsx
+++ b/biology/Botanique/Saccharina_japonica/Saccharina_japonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saccharina japonica (Dasima 다시마 en coréen et  kombu en japonais) est une espèce d’algues brunes marines de la famille des Laminariaceae. 
-C’est une algue qui est majoritairement cultivée en Chine, au Japon, et en Corée du Sud[4],[5]. C’est une des espèces qui sont commercialisées sous le nom de konbu.
-L'espèce fut rangée sous le genre Saccharina en 2006 : elle était rangée sous le genre Laminaria auparavant[6].
+C’est une algue qui est majoritairement cultivée en Chine, au Japon, et en Corée du Sud,. C’est une des espèces qui sont commercialisées sous le nom de konbu.
+L'espèce fut rangée sous le genre Saccharina en 2006 : elle était rangée sous le genre Laminaria auparavant.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des formes et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (16 août 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (16 août 2017) :
 variété Saccharina japonica var. diabolica (Miyabe) N.Yotsukura, S.Kawashima, T.Kawai, T.Abe &amp; L.D.Druehl, 2008
 variété Saccharina japonica var. ochotensis (Miyabe) N.Yotsukura, S.Kawashima, T.Kawai, T.Abe &amp; L.D.Druehl, 2008
 variété Saccharina japonica var. religiosa (Miyabe) N.Yotsukura, S.Kawashima, T.Kawai, T.Abe &amp; L.D.Druehl, 2008
